--- a/validation2.xlsx
+++ b/validation2.xlsx
@@ -5,28 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilizador\Desktop\RCOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U. Porto\3 ano\1 semestre\RCOM-aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2706DE60-567A-4551-90E1-653FEB439680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEDE30B-E150-4963-A7C6-C38876392A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8B76046A-9689-406D-A794-A79A688CECE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8B76046A-9689-406D-A794-A79A688CECE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>Baurate</t>
   </si>
@@ -68,6 +76,21 @@
   </si>
   <si>
     <t>Delay</t>
+  </si>
+  <si>
+    <t>0+0</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>3+3</t>
+  </si>
+  <si>
+    <t>5+5</t>
+  </si>
+  <si>
+    <t>7+7</t>
   </si>
 </sst>
 </file>
@@ -214,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -235,11 +258,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -375,40 +432,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -685,66 +708,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Eficiência em funçaão</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> do baudrate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -843,6 +807,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="489071000"/>
         <c:axId val="489072640"/>
@@ -945,6 +923,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Baudrate (C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1010,8 +1043,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Eficiência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (S=R/C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1111,71 +1204,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Eficiência em função do tamanho da trama</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17477777777777778"/>
-          <c:y val="4.5321637426900582E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1274,44 +1303,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:upDownBars>
-          <c:gapWidth val="150"/>
-          <c:upBars>
-            <c:spPr>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="15000"/>
-                    <a:lumOff val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:upBars>
-          <c:downBars>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:downBars>
-        </c:upDownBars>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="439138240"/>
         <c:axId val="439136928"/>
@@ -1426,6 +1431,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tamanho</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de cada pacote (em bytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1491,8 +1556,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Eficiência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (S=R/C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1592,74 +1717,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Eficiência</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> em função do atraso introduzido</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11606233595800525"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1768,28 +1826,27 @@
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$B$33:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0+0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1+1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3+3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5+5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>7+7</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1830,6 +1887,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="491844176"/>
         <c:axId val="491844504"/>
@@ -1855,7 +1926,7 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -1863,26 +1934,25 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                    <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>0+0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>1+1</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>3+3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5</c:v>
+                        <c:v>5+5</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7</c:v>
+                        <c:v>7+7</c:v>
                       </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
@@ -1900,16 +1970,16 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>7</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1932,6 +2002,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Percentagem</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> de erros BCC1 + Percentagem de erros BCC2</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1997,8 +2127,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Eficiência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (S=R/C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2098,66 +2288,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Eficiência</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> em função da percentagem de erros</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2183,21 +2314,21 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$B$33:$B$36</c:f>
+              <c:f>Folha1!$B$40:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,6 +2369,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="540031320"/>
         <c:axId val="540030336"/>
@@ -2267,7 +2412,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Folha1!$B$33:$B$36</c15:sqref>
+                          <c15:sqref>Folha1!$B$40:$B$43</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2275,16 +2420,16 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>1E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>0.05</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>0.1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5</c:v>
+                        <c:v>0.15</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2305,13 +2450,13 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2334,6 +2479,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>Atraso introduzido (em segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2399,8 +2599,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Eficiência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (S=R/C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4721,9 +4981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4757,9 +5017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4829,7 +5089,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>254373</xdr:colOff>
+      <xdr:colOff>439271</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>92728</xdr:rowOff>
     </xdr:to>
@@ -4897,12 +5157,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{59D6BE2B-E8E7-4CF8-B814-68E8D4878894}" name="Tabela9" displayName="Tabela9" ref="B32:E37" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="B32:E37" xr:uid="{60CC4705-0461-41AB-8FB1-39D3FFE75030}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{42ED30A3-CF64-4FAD-B7FA-FB666E180C58}" name="ErrorRate" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{53D87E3C-80F3-44F1-ABF0-1AE75070C35C}" name="Time" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{389330F8-20E1-40FC-9FC1-FAA4C9E14470}" name="R" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{42ED30A3-CF64-4FAD-B7FA-FB666E180C58}" name="ErrorRate" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{53D87E3C-80F3-44F1-ABF0-1AE75070C35C}" name="Time" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{389330F8-20E1-40FC-9FC1-FAA4C9E14470}" name="R" dataDxfId="11">
       <calculatedColumnFormula>P$16/Tabela9[[#This Row],[Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6E177E1D-2630-426A-8A6E-67B0686E0260}" name="S" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{6E177E1D-2630-426A-8A6E-67B0686E0260}" name="S" dataDxfId="10">
       <calculatedColumnFormula>Tabela9[[#This Row],[R]]/38400</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4911,15 +5171,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{907C4257-FE93-48B8-812F-F761245B1261}" name="Tabela10" displayName="Tabela10" ref="B39:E43" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{907C4257-FE93-48B8-812F-F761245B1261}" name="Tabela10" displayName="Tabela10" ref="B39:E43" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B39:E43" xr:uid="{98320FD0-C5F7-4047-9233-91043E3BDF79}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{844010D1-A05E-4C5B-AD97-606459DB82B0}" name="Delay" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EE29C71F-208D-4FB6-B573-347A41327570}" name="Time" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8B878435-E207-4107-A865-1171545A39B3}" name="R" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{844010D1-A05E-4C5B-AD97-606459DB82B0}" name="Delay" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EE29C71F-208D-4FB6-B573-347A41327570}" name="Time" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8B878435-E207-4107-A865-1171545A39B3}" name="R" dataDxfId="3">
       <calculatedColumnFormula>P$16/Tabela10[[#This Row],[Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20328B51-BCCA-435A-94BA-A4C1B79570CA}" name="S" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{20328B51-BCCA-435A-94BA-A4C1B79570CA}" name="S" dataDxfId="2">
       <calculatedColumnFormula>Tabela10[[#This Row],[R]]/38400</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5226,28 +5486,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5A2097-D22B-40B5-9060-7C1074534586}">
   <dimension ref="B5:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="M18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="Q5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +5524,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="Q6" s="1" t="s">
         <v>1</v>
       </c>
@@ -5281,13 +5541,13 @@
         <v>11.412019000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="W9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="W10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5295,7 +5555,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
@@ -5324,7 +5584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
@@ -5365,7 +5625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>4800</v>
       </c>
@@ -5411,7 +5671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>9600</v>
       </c>
@@ -5452,7 +5712,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>19200</v>
       </c>
@@ -5468,7 +5728,7 @@
         <v>0.4585155060205538</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>38400</v>
       </c>
@@ -5484,7 +5744,7 @@
         <v>0.45365727538438327</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>57600</v>
       </c>
@@ -5524,7 +5784,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -5554,7 +5814,7 @@
         <v>10.660242999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>2</v>
       </c>
@@ -5599,7 +5859,7 @@
         <v>27203.58250745316</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>32</v>
       </c>
@@ -5646,7 +5906,7 @@
         <v>0.70842662779825938</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>64</v>
       </c>
@@ -5662,7 +5922,7 @@
         <v>0.57413350656676598</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>96</v>
       </c>
@@ -5678,7 +5938,7 @@
         <v>0.62855486812915529</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>128</v>
       </c>
@@ -5694,7 +5954,7 @@
         <v>0.66238141907851433</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>160</v>
       </c>
@@ -5710,7 +5970,7 @@
         <v>0.68145111188331797</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>192</v>
       </c>
@@ -5726,7 +5986,7 @@
         <v>0.69774302490264439</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>224</v>
       </c>
@@ -5760,7 +6020,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
@@ -5780,7 +6040,7 @@
         <v>0.46258743707280275</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -5788,7 +6048,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>12</v>
       </c>
@@ -5802,9 +6062,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
-        <v>0</v>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>16.646927999999999</v>
@@ -5818,9 +6078,9 @@
         <v>0.45365727538438327</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
-        <v>1</v>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="C34" s="1">
         <v>25.969783</v>
@@ -5852,9 +6112,9 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
-        <v>3</v>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="C35" s="1">
         <v>29.259914999999999</v>
@@ -5886,9 +6146,9 @@
         <v>0.44693061434761489</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
-        <v>5</v>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C36" s="1">
         <v>52.640816000000001</v>
@@ -5902,9 +6162,9 @@
         <v>0.14346282170094019</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
-        <v>7</v>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="C37" s="1">
         <v>87.051704000000001</v>
@@ -5918,7 +6178,7 @@
         <v>8.6753040468914883E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G38" s="1" t="s">
         <v>10</v>
       </c>
@@ -5930,7 +6190,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>13</v>
       </c>
@@ -5962,7 +6222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="7">
         <v>1E-3</v>
       </c>
@@ -5978,7 +6238,7 @@
         <v>0.69926204335813569</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="7">
         <v>0.05</v>
       </c>
@@ -6012,7 +6272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>0.1</v>
       </c>
@@ -6038,7 +6298,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>0.15</v>
       </c>
